--- a/data/long_razon/IMC_R-Estudios-long_razon.xlsx
+++ b/data/long_razon/IMC_R-Estudios-long_razon.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-16,13%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-42,59%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,44%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-7,15%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-8,69%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-26,64%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-56,99; 71,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-71,42; 5,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-47,6; 86,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-49,28; 57,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-42,82; 57,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-51,34; 11,58</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -681,32 +742,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-30,66%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>62,94%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-6,12%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>4,44%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-19,31%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>34,59%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -719,32 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-58,23; 18,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-8,37; 199,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-42,47; 45,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-36,12; 75,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-44,51; 12,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-7,49; 98,28</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -761,32 +852,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>7,54%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-21,1%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-10,3%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>63,3%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>1,47%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>11,14%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -799,39 +905,54 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-41,83; 130,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-60,71; 35,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-58,64; 94,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,11; 176,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-38,29; 85,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-28,93; 62,7</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -841,32 +962,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-16,33%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-1,06%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-5,16%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>16,32%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-11,54%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>6,6%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -879,42 +1015,175 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-40,13; 21,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-31,98; 34,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-32,23; 31,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-15,31; 56,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-30,25; 14,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-16,46; 32,96</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>

--- a/data/long_razon/IMC_R-Estudios-long_razon.xlsx
+++ b/data/long_razon/IMC_R-Estudios-long_razon.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +127,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +140,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +509,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -630,329 +635,217 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>0.5745200983254998</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-0.4261300659149259</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-0.5333861157798839</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>-0.1513440330611953</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>0.006258056121581983</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>-0.3395421310199528</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>0.1449799712418428</v>
+      </c>
+      <c r="J4" s="5" t="n">
+        <v>-0.2328512256410132</v>
+      </c>
+      <c r="K4" s="5" t="n">
+        <v>-0.4298632658702627</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-0.3590010800303406</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-0.712620846465514</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-0.8756240430546754</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-0.6205731623280292</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-0.4526001795837851</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>-0.710654452478904</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>-0.3787076795992764</v>
+      </c>
+      <c r="J5" s="5" t="n">
+        <v>-0.5097920266154381</v>
+      </c>
+      <c r="K5" s="5" t="n">
+        <v>-0.7153146103506767</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>2.659834729508584</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>0.01199590453890477</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>0.4356055561335514</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>1.027405290569252</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>0.8308714164176382</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>0.6371170645510418</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>1.060314700460734</v>
+      </c>
+      <c r="J6" s="5" t="n">
+        <v>0.1906151074819171</v>
+      </c>
+      <c r="K6" s="5" t="n">
+        <v>0.08135961882138734</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-0.3849343801054664</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0.7018622265516483</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-0.2052693888800497</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>0.3099692021060153</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>0.0228213234464774</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>-0.3547470868321109</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>-0.08294874037657851</v>
+      </c>
+      <c r="J7" s="5" t="n">
+        <v>0.3679078772467404</v>
+      </c>
+      <c r="K7" s="5" t="n">
+        <v>-0.2871372682943695</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-0.6797272320430943</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-0.03241097421199242</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-0.5821744798614013</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-0.2141484410383942</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-0.3560240424618527</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>-0.5987885417442556</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>-0.3807395073900525</v>
+      </c>
+      <c r="J8" s="5" t="n">
+        <v>-0.0778572923080935</v>
+      </c>
+      <c r="K8" s="5" t="n">
+        <v>-0.5163929964514505</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>0.1329872962291</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>2.091229627901134</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.5277969669740393</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>1.152450887672933</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.6597895839083919</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>0.06876975334997169</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>0.343065706897923</v>
+      </c>
+      <c r="J9" s="5" t="n">
+        <v>1.02600131711279</v>
+      </c>
+      <c r="K9" s="5" t="n">
+        <v>0.05281554018006355</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -960,233 +853,230 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>0.2763256713167196</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-0.2165717274132522</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0.1374420932698979</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>0.07812454759123728</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>0.5889050988605856</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>0.2829403707194553</v>
+      </c>
+      <c r="I10" s="5" t="n">
+        <v>0.2080679557660761</v>
+      </c>
+      <c r="J10" s="5" t="n">
+        <v>0.09635298927722001</v>
+      </c>
+      <c r="K10" s="5" t="n">
+        <v>0.1966671275679212</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-0.3662529790224307</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-0.600601422523576</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-0.3464231635758271</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-0.4997201604358907</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>-0.02998830848586704</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>-0.2620702359760357</v>
+      </c>
+      <c r="I11" s="5" t="n">
+        <v>-0.2626613028512446</v>
+      </c>
+      <c r="J11" s="5" t="n">
+        <v>-0.2797705767426628</v>
+      </c>
+      <c r="K11" s="5" t="n">
+        <v>-0.2179289711434171</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>1.807832559303436</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>0.4263441289540275</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>0.9881942259539739</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>1.537759415850678</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>1.6838149061261</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>1.300216330108923</v>
+      </c>
+      <c r="I12" s="5" t="n">
+        <v>1.296379599713966</v>
+      </c>
+      <c r="J12" s="5" t="n">
+        <v>0.6113130046402264</v>
+      </c>
+      <c r="K12" s="5" t="n">
+        <v>0.776256413358634</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>-0.04765310161669269</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.01040626372791039</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>-0.1827164002320437</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>0.1406313479489013</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>0.1712328171827628</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>-0.2133441914899241</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <v>0.03590610502455806</v>
+      </c>
+      <c r="J13" s="5" t="n">
+        <v>0.08191255524154627</v>
+      </c>
+      <c r="K13" s="5" t="n">
+        <v>-0.1982231314419906</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-0.3611577112020486</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-0.2613796083165481</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-0.450569044233653</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-0.2201638160878281</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-0.1314911682294691</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>-0.4305270937315654</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <v>-0.2210997593627705</v>
+      </c>
+      <c r="J14" s="5" t="n">
+        <v>-0.1330027516312123</v>
+      </c>
+      <c r="K14" s="5" t="n">
+        <v>-0.3781146761219389</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>0.493118313328646</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>0.4567098017003329</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>0.2154980169670621</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>0.6978449462273167</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>0.613241808544904</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>0.09658877436615376</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>0.3740916429327069</v>
+      </c>
+      <c r="J15" s="5" t="n">
+        <v>0.368135419242184</v>
+      </c>
+      <c r="K15" s="5" t="n">
+        <v>0.03781138035871829</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
